--- a/app/data/resultados_unificado.xlsx
+++ b/app/data/resultados_unificado.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinchapouille/Desktop/Serendip.IA/app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D538BE11-6939-5B46-A60A-E2F9840EAE56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1708CF2-14ED-E948-ADDD-DBE391587FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="1380" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13020" yWindow="2300" windowWidth="25380" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 3" sheetId="1" r:id="rId1"/>
@@ -94,9 +94,6 @@
     <t>ventas_totales_salon</t>
   </si>
   <si>
-    <t>semaforo_tipo_salon</t>
-  </si>
-  <si>
     <t>año</t>
   </si>
   <si>
@@ -1637,6 +1634,9 @@
   </si>
   <si>
     <t>$33,789.00</t>
+  </si>
+  <si>
+    <t>tier_salon</t>
   </si>
 </sst>
 </file>
@@ -1659,12 +1659,14 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1961,9 +1963,9 @@
   </sheetPr>
   <dimension ref="A1:X94"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D12" sqref="D12"/>
+      <selection pane="topRight" activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.83203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2054,16 +2056,16 @@
         <v>19</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="X1" s="6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2071,22 +2073,22 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="E2" s="2">
         <v>12</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="H2" s="2">
         <v>-34.630088100000002</v>
@@ -2116,28 +2118,28 @@
         <v>11643</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="S2" s="3">
         <v>1137049164.1599998</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="V2" s="2">
         <v>2025</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2145,22 +2147,22 @@
         <v>127</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="E3" s="2">
         <v>8</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="H3" s="2">
         <v>-34.612914000000004</v>
@@ -2190,28 +2192,28 @@
         <v>7354</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="S3" s="3">
         <v>213440584.15000001</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="V3" s="2">
         <v>2025</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2219,22 +2221,22 @@
         <v>107</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="E4" s="2">
         <v>12</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="H4" s="2">
         <v>-34.795934899999999</v>
@@ -2264,28 +2266,28 @@
         <v>12839</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="S4" s="3">
         <v>496475864.93000001</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V4" s="2">
         <v>2025</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2293,22 +2295,22 @@
         <v>48</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="E5" s="2">
         <v>12</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="H5" s="2">
         <v>-34.677175900000002</v>
@@ -2338,25 +2340,25 @@
         <v>7719</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="S5" s="3">
         <v>1395164049.6599998</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="V5" s="2">
         <v>2025</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="X5" s="2">
         <v>0</v>
@@ -2367,22 +2369,22 @@
         <v>49</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E6" s="2">
         <v>12</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="H6" s="2">
         <v>-34.677175900000002</v>
@@ -2412,25 +2414,25 @@
         <v>5237</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="S6" s="3">
         <v>1488217424.4200001</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="V6" s="2">
         <v>2025</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="X6" s="2">
         <v>0</v>
@@ -2441,22 +2443,22 @@
         <v>96</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="E7" s="2">
         <v>12</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="H7" s="2">
         <v>-34.6754885</v>
@@ -2486,25 +2488,25 @@
         <v>11494</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="S7" s="3">
         <v>576095051.08000004</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="V7" s="2">
         <v>2025</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="X7" s="2">
         <v>0</v>
@@ -2515,22 +2517,22 @@
         <v>97</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E8" s="2">
         <v>11</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="H8" s="2">
         <v>-34.6754885</v>
@@ -2560,25 +2562,25 @@
         <v>7663</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="S8" s="3">
         <v>489835612.18000001</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="V8" s="2">
         <v>2025</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="X8" s="2">
         <v>0</v>
@@ -2589,22 +2591,22 @@
         <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="E9" s="2">
         <v>11</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="H9" s="2">
         <v>-34.556874700000002</v>
@@ -2634,28 +2636,28 @@
         <v>14142</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="S9" s="3">
         <v>961052898.28999996</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="V9" s="2">
         <v>2025</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="X9" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2663,22 +2665,22 @@
         <v>38</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="E10" s="2">
         <v>12</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H10" s="2">
         <v>-34.565827599999999</v>
@@ -2708,28 +2710,28 @@
         <v>13088</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="S10" s="3">
         <v>1069116576.35</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="V10" s="2">
         <v>2025</v>
       </c>
       <c r="W10" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="X10" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2737,22 +2739,22 @@
         <v>44</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="E11" s="2">
         <v>12</v>
       </c>
       <c r="F11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="H11" s="2">
         <v>-34.4130045</v>
@@ -2782,28 +2784,28 @@
         <v>10686</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="S11" s="3">
         <v>1223556100.0799999</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V11" s="2">
         <v>2025</v>
       </c>
       <c r="W11" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="X11" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2811,22 +2813,22 @@
         <v>45</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="E12" s="2">
         <v>12</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H12" s="2">
         <v>-34.4130343</v>
@@ -2856,28 +2858,28 @@
         <v>10342</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="S12" s="3">
         <v>1190131168.3499999</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V12" s="2">
         <v>2025</v>
       </c>
       <c r="W12" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="X12" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2885,22 +2887,22 @@
         <v>108</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="E13" s="2">
         <v>0</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H13" s="2">
         <v>-34.780979899999998</v>
@@ -2930,28 +2932,28 @@
         <v>0</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="S13" s="3">
         <v>145007484</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="U13" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="V13" s="2">
         <v>2025</v>
       </c>
       <c r="W13" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="X13" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2959,22 +2961,22 @@
         <v>109</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="E14" s="2">
         <v>12</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H14" s="2">
         <v>-34.7764685</v>
@@ -3004,28 +3006,28 @@
         <v>10194</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="S14" s="3">
         <v>186829875.21000001</v>
       </c>
       <c r="T14" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="V14" s="2">
         <v>2025</v>
       </c>
       <c r="W14" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="X14" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3033,22 +3035,22 @@
         <v>89</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="E15" s="2">
         <v>12</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H15" s="2">
         <v>-34.895475300000001</v>
@@ -3078,28 +3080,28 @@
         <v>18500</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="S15" s="3">
         <v>708403734.21000004</v>
       </c>
       <c r="T15" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="V15" s="2">
         <v>2025</v>
       </c>
       <c r="W15" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="X15" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3107,22 +3109,22 @@
         <v>120</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="E16" s="2">
         <v>12</v>
       </c>
       <c r="F16" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="H16" s="2">
         <v>-34.488081299999997</v>
@@ -3152,28 +3154,28 @@
         <v>9118</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="R16" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="S16" s="3">
         <v>252812845.41</v>
       </c>
       <c r="T16" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="V16" s="2">
         <v>2025</v>
       </c>
       <c r="W16" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="X16" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="17" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3181,22 +3183,22 @@
         <v>34</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="E17" s="2">
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="H17" s="2">
         <v>-34.60711079</v>
@@ -3226,28 +3228,28 @@
         <v>10458</v>
       </c>
       <c r="Q17" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="R17" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="S17" s="3">
         <v>904671476.20000005</v>
       </c>
       <c r="T17" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="V17" s="2">
         <v>2025</v>
       </c>
       <c r="W17" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="X17" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="18" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3255,22 +3257,22 @@
         <v>84</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="E18" s="2">
         <v>9</v>
       </c>
       <c r="F18" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="H18" s="2">
         <v>-34.609647000000002</v>
@@ -3300,28 +3302,28 @@
         <v>13115</v>
       </c>
       <c r="Q18" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="R18" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="S18" s="3">
         <v>1389746758.95</v>
       </c>
       <c r="T18" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="V18" s="2">
         <v>2025</v>
       </c>
       <c r="W18" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="X18" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="19" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3329,22 +3331,22 @@
         <v>85</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E19" s="2">
         <v>12</v>
       </c>
       <c r="F19" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="H19" s="2">
         <v>-34.609647000000002</v>
@@ -3374,28 +3376,28 @@
         <v>11751</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="S19" s="3">
         <v>1025645983.02</v>
       </c>
       <c r="T19" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="U19" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="V19" s="2">
         <v>2025</v>
       </c>
       <c r="W19" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="X19" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="20" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3403,22 +3405,22 @@
         <v>125</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="E20" s="2">
         <v>12</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H20" s="2">
         <v>-34.157038700000001</v>
@@ -3448,28 +3450,28 @@
         <v>9643</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="R20" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="S20" s="3">
         <v>315555866.19999999</v>
       </c>
       <c r="T20" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="U20" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="V20" s="2">
         <v>2025</v>
       </c>
       <c r="W20" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="X20" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="21" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3477,22 +3479,22 @@
         <v>128</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="E21" s="2">
         <v>12</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H21" s="2">
         <v>-34.856253299999999</v>
@@ -3522,28 +3524,28 @@
         <v>7485</v>
       </c>
       <c r="Q21" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="R21" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="S21" s="3">
         <v>300668181.01999998</v>
       </c>
       <c r="T21" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="U21" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="V21" s="2">
         <v>2025</v>
       </c>
       <c r="W21" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="X21" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="22" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3551,22 +3553,22 @@
         <v>9</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="E22" s="2">
         <v>7</v>
       </c>
       <c r="F22" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="H22" s="2">
         <v>-34.449816200000001</v>
@@ -3596,28 +3598,28 @@
         <v>8627</v>
       </c>
       <c r="Q22" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="R22" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="S22" s="3">
         <v>568498286.23000002</v>
       </c>
       <c r="T22" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="U22" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V22" s="2">
         <v>2025</v>
       </c>
       <c r="W22" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="X22" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="23" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3625,22 +3627,22 @@
         <v>87</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="E23" s="2">
         <v>9</v>
       </c>
       <c r="F23" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="H23" s="2">
         <v>-34.572670199999997</v>
@@ -3670,25 +3672,25 @@
         <v>17851</v>
       </c>
       <c r="Q23" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="R23" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="S23" s="3">
         <v>2080272211.29</v>
       </c>
       <c r="T23" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="U23" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="V23" s="2">
         <v>2025</v>
       </c>
       <c r="W23" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="X23" s="3">
         <v>0</v>
@@ -3699,22 +3701,22 @@
         <v>88</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="E24" s="2">
         <v>12</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H24" s="2">
         <v>-34.566740000000003</v>
@@ -3744,25 +3746,25 @@
         <v>1883</v>
       </c>
       <c r="Q24" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="R24" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="S24" s="3">
         <v>958587702.94000006</v>
       </c>
       <c r="T24" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="U24" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="V24" s="2">
         <v>2025</v>
       </c>
       <c r="W24" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="X24" s="3">
         <v>0</v>
@@ -3773,22 +3775,22 @@
         <v>93</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="E25" s="2">
         <v>12</v>
       </c>
       <c r="F25" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="H25" s="2">
         <v>-34.4909745</v>
@@ -3818,28 +3820,28 @@
         <v>12716</v>
       </c>
       <c r="Q25" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="R25" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="S25" s="3">
         <v>927627819.26999998</v>
       </c>
       <c r="T25" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="U25" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V25" s="2">
         <v>2025</v>
       </c>
       <c r="W25" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="X25" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="26" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3847,22 +3849,22 @@
         <v>58</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="E26" s="2">
         <v>12</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H26" s="2">
         <v>-34.588645399999997</v>
@@ -3892,28 +3894,28 @@
         <v>18953</v>
       </c>
       <c r="Q26" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="R26" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="S26" s="3">
         <v>1918458632.55</v>
       </c>
       <c r="T26" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="U26" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V26" s="2">
         <v>2025</v>
       </c>
       <c r="W26" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="X26" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="27" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3921,22 +3923,22 @@
         <v>59</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E27" s="2">
         <v>12</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H27" s="2">
         <v>-34.588645399999997</v>
@@ -3966,28 +3968,28 @@
         <v>11871</v>
       </c>
       <c r="Q27" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="R27" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="S27" s="3">
         <v>989776510.27999997</v>
       </c>
       <c r="T27" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="U27" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V27" s="2">
         <v>2025</v>
       </c>
       <c r="W27" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="X27" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="28" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3995,22 +3997,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="E28" s="2">
         <v>12</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H28" s="2">
         <v>-34.448048300000004</v>
@@ -4040,28 +4042,28 @@
         <v>7359</v>
       </c>
       <c r="Q28" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="R28" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="S28" s="3">
         <v>757504584.73000002</v>
       </c>
       <c r="T28" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="U28" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="V28" s="2">
         <v>2025</v>
       </c>
       <c r="W28" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="X28" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="29" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4069,22 +4071,22 @@
         <v>53</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="E29" s="2">
         <v>12</v>
       </c>
       <c r="F29" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="H29" s="2">
         <v>-34.546485599999997</v>
@@ -4114,25 +4116,25 @@
         <v>8441</v>
       </c>
       <c r="Q29" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="R29" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="S29" s="3">
         <v>463881108.87</v>
       </c>
       <c r="T29" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="U29" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="V29" s="2">
         <v>2025</v>
       </c>
       <c r="W29" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="X29" s="3">
         <v>0</v>
@@ -4143,22 +4145,22 @@
         <v>14</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="E30" s="2">
         <v>12</v>
       </c>
       <c r="F30" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="H30" s="2">
         <v>-34.352636099999998</v>
@@ -4188,28 +4190,28 @@
         <v>6734</v>
       </c>
       <c r="Q30" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="R30" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="S30" s="3">
         <v>673136559.95000005</v>
       </c>
       <c r="T30" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="U30" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="V30" s="2">
         <v>2025</v>
       </c>
       <c r="W30" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="X30" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="31" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4217,22 +4219,22 @@
         <v>104</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="E31" s="2">
         <v>11</v>
       </c>
       <c r="F31" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="H31" s="2">
         <v>-34.635650800000001</v>
@@ -4262,28 +4264,28 @@
         <v>12979</v>
       </c>
       <c r="Q31" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="R31" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="S31" s="3">
         <v>724848181.37</v>
       </c>
       <c r="T31" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="U31" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V31" s="2">
         <v>2025</v>
       </c>
       <c r="W31" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="X31" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="32" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4291,22 +4293,22 @@
         <v>105</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E32" s="2">
         <v>12</v>
       </c>
       <c r="F32" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="H32" s="2">
         <v>-34.606878100000003</v>
@@ -4336,28 +4338,28 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="R32" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
       <c r="T32" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="U32" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V32" s="2">
         <v>2025</v>
       </c>
       <c r="W32" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="X32" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="33" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4365,22 +4367,22 @@
         <v>50</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="E33" s="2">
         <v>12</v>
       </c>
       <c r="F33" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G33" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="H33" s="2">
         <v>-34.9041377</v>
@@ -4410,28 +4412,28 @@
         <v>16624</v>
       </c>
       <c r="Q33" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="R33" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="S33" s="3">
         <v>1137685356.54</v>
       </c>
       <c r="T33" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="U33" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V33" s="2">
         <v>2025</v>
       </c>
       <c r="W33" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="X33" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="34" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4439,22 +4441,22 @@
         <v>5</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="E34" s="2">
         <v>0</v>
       </c>
       <c r="F34" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G34" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="H34" s="2">
         <v>-34.520800299999998</v>
@@ -4484,28 +4486,28 @@
         <v>10419</v>
       </c>
       <c r="Q34" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="R34" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="S34" s="3">
         <v>519140287.80000001</v>
       </c>
       <c r="T34" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="U34" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="V34" s="2">
         <v>2025</v>
       </c>
       <c r="W34" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="X34" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="35" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4513,22 +4515,22 @@
         <v>26</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="E35" s="2">
         <v>12</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H35" s="2">
         <v>-34.774810199999997</v>
@@ -4558,28 +4560,28 @@
         <v>7603</v>
       </c>
       <c r="Q35" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="R35" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="S35" s="3">
         <v>1388236616.4400001</v>
       </c>
       <c r="T35" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="U35" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="V35" s="2">
         <v>2025</v>
       </c>
       <c r="W35" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="X35" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="36" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4587,22 +4589,22 @@
         <v>111</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="E36" s="2">
         <v>12</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H36" s="2">
         <v>-34.774810199999997</v>
@@ -4632,28 +4634,28 @@
         <v>9874</v>
       </c>
       <c r="Q36" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="R36" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="S36" s="3">
         <v>391460163.85000002</v>
       </c>
       <c r="T36" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="U36" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="V36" s="2">
         <v>2025</v>
       </c>
       <c r="W36" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="X36" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="37" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4661,22 +4663,22 @@
         <v>4</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="E37" s="2">
         <v>12</v>
       </c>
       <c r="F37" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G37" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="H37" s="2">
         <v>-34.601569099999999</v>
@@ -4706,28 +4708,28 @@
         <v>12463</v>
       </c>
       <c r="Q37" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="R37" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="S37" s="3">
         <v>1081874494.1199999</v>
       </c>
       <c r="T37" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="U37" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="V37" s="2">
         <v>2025</v>
       </c>
       <c r="W37" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="X37" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="38" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4735,22 +4737,22 @@
         <v>11</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="E38" s="2">
         <v>12</v>
       </c>
       <c r="F38" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G38" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="H38" s="2">
         <v>-34.6392089</v>
@@ -4780,28 +4782,28 @@
         <v>10985</v>
       </c>
       <c r="Q38" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="R38" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="S38" s="3">
         <v>1178885341.76</v>
       </c>
       <c r="T38" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="U38" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V38" s="2">
         <v>2025</v>
       </c>
       <c r="W38" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="X38" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="39" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4809,22 +4811,22 @@
         <v>25</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="E39" s="2">
         <v>12</v>
       </c>
       <c r="F39" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G39" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="H39" s="2">
         <v>-34.664427099999997</v>
@@ -4854,28 +4856,28 @@
         <v>14253</v>
       </c>
       <c r="Q39" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="R39" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="S39" s="3">
         <v>1139172593.3</v>
       </c>
       <c r="T39" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="U39" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V39" s="2">
         <v>2025</v>
       </c>
       <c r="W39" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="X39" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="40" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4883,22 +4885,22 @@
         <v>6</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="E40" s="2">
         <v>12</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H40" s="2">
         <v>-34.512198400000003</v>
@@ -4928,7 +4930,7 @@
         <v>540</v>
       </c>
       <c r="Q40" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="R40" s="3">
         <v>0</v>
@@ -4937,10 +4939,10 @@
         <v>174970224</v>
       </c>
       <c r="T40" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="U40" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="V40" s="2">
         <v>2025</v>
@@ -4949,7 +4951,7 @@
         <v>0</v>
       </c>
       <c r="X40" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="41" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4957,22 +4959,22 @@
         <v>57</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E41" s="2">
         <v>12</v>
       </c>
       <c r="F41" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G41" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="H41" s="2">
         <v>-34.944790300000001</v>
@@ -5002,28 +5004,28 @@
         <v>14898</v>
       </c>
       <c r="Q41" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="R41" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="S41" s="3">
         <v>1042204261.3200001</v>
       </c>
       <c r="T41" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="U41" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V41" s="2">
         <v>2025</v>
       </c>
       <c r="W41" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="X41" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="42" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5031,22 +5033,22 @@
         <v>28</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D42" s="2" t="s">
+      <c r="E42" s="2">
+        <v>12</v>
+      </c>
+      <c r="F42" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="E42" s="2">
-        <v>0</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="G42" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H42" s="2">
         <v>-34.644904400000001</v>
@@ -5076,28 +5078,28 @@
         <v>11596</v>
       </c>
       <c r="Q42" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="R42" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="S42" s="3">
         <v>1238281747.3600001</v>
       </c>
       <c r="T42" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="U42" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="V42" s="2">
         <v>2025</v>
       </c>
       <c r="W42" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="X42" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="43" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5105,22 +5107,22 @@
         <v>126</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>158</v>
       </c>
       <c r="E43" s="2">
         <v>12</v>
       </c>
       <c r="F43" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G43" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>160</v>
       </c>
       <c r="H43" s="2">
         <v>-34.760554900000002</v>
@@ -5150,28 +5152,28 @@
         <v>4455</v>
       </c>
       <c r="Q43" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="R43" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="S43" s="3">
         <v>325590896.86000001</v>
       </c>
       <c r="T43" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U43" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="V43" s="2">
         <v>2025</v>
       </c>
       <c r="W43" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="X43" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="44" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5179,22 +5181,22 @@
         <v>80</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>162</v>
       </c>
       <c r="E44" s="2">
         <v>12</v>
       </c>
       <c r="F44" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G44" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="H44" s="2">
         <v>-38.011048600000002</v>
@@ -5224,28 +5226,28 @@
         <v>10848</v>
       </c>
       <c r="Q44" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="R44" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="S44" s="3">
         <v>1041878572.26</v>
       </c>
       <c r="T44" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="U44" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="V44" s="2">
         <v>2025</v>
       </c>
       <c r="W44" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="X44" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="45" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5253,22 +5255,22 @@
         <v>8</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>166</v>
       </c>
       <c r="E45" s="2">
         <v>7</v>
       </c>
       <c r="F45" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G45" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="H45" s="2">
         <v>-34.492545800000002</v>
@@ -5298,28 +5300,28 @@
         <v>11757</v>
       </c>
       <c r="Q45" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="R45" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="S45" s="3">
         <v>852748808.10000002</v>
       </c>
       <c r="T45" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="U45" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V45" s="2">
         <v>2025</v>
       </c>
       <c r="W45" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="X45" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="46" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5327,22 +5329,22 @@
         <v>20</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="E46" s="2">
         <v>12</v>
       </c>
       <c r="F46" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G46" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>170</v>
       </c>
       <c r="H46" s="2">
         <v>-34.378112299999998</v>
@@ -5372,28 +5374,28 @@
         <v>12438</v>
       </c>
       <c r="Q46" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="R46" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="S46" s="3">
         <v>1148166418.96</v>
       </c>
       <c r="T46" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="U46" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="V46" s="2">
         <v>2025</v>
       </c>
       <c r="W46" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="X46" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="47" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5401,22 +5403,22 @@
         <v>47</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>172</v>
       </c>
       <c r="E47" s="2">
         <v>12</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H47" s="2">
         <v>-34.669885499999999</v>
@@ -5446,28 +5448,28 @@
         <v>12296</v>
       </c>
       <c r="Q47" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="R47" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="S47" s="3">
         <v>853111010.14999998</v>
       </c>
       <c r="T47" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="U47" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="V47" s="2">
         <v>2025</v>
       </c>
       <c r="W47" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="X47" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="48" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5475,22 +5477,22 @@
         <v>118</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>175</v>
       </c>
       <c r="E48" s="2">
         <v>12</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H48" s="2">
         <v>-34.661126600000003</v>
@@ -5520,28 +5522,28 @@
         <v>9825</v>
       </c>
       <c r="Q48" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="R48" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="S48" s="3">
         <v>387441497.67000002</v>
       </c>
       <c r="T48" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="U48" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="V48" s="2">
         <v>2025</v>
       </c>
       <c r="W48" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="X48" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="49" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5549,22 +5551,22 @@
         <v>10</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>177</v>
       </c>
       <c r="E49" s="2">
         <v>12</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H49" s="2">
         <v>-34.646204599999997</v>
@@ -5594,28 +5596,28 @@
         <v>11867</v>
       </c>
       <c r="Q49" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="R49" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="S49" s="3">
         <v>986001435.27999997</v>
       </c>
       <c r="T49" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="U49" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="V49" s="2">
         <v>2025</v>
       </c>
       <c r="W49" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="X49" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="50" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5623,22 +5625,22 @@
         <v>43</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>179</v>
       </c>
       <c r="E50" s="2">
         <v>10</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H50" s="2">
         <v>-34.633336900000003</v>
@@ -5668,28 +5670,28 @@
         <v>10318</v>
       </c>
       <c r="Q50" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="R50" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="S50" s="3">
         <v>784338304.67999995</v>
       </c>
       <c r="T50" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="U50" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="V50" s="2">
         <v>2025</v>
       </c>
       <c r="W50" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="X50" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="51" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5697,22 +5699,22 @@
         <v>56</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>182</v>
       </c>
       <c r="E51" s="2">
         <v>12</v>
       </c>
       <c r="F51" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G51" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="H51" s="2">
         <v>-34.542336200000001</v>
@@ -5742,28 +5744,28 @@
         <v>18669</v>
       </c>
       <c r="Q51" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="R51" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="S51" s="3">
         <v>1363516522.26</v>
       </c>
       <c r="T51" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="U51" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V51" s="2">
         <v>2025</v>
       </c>
       <c r="W51" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="X51" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="52" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5771,22 +5773,22 @@
         <v>12</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="E52" s="2">
         <v>12</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H52" s="2">
         <v>-34.502295500000002</v>
@@ -5816,28 +5818,28 @@
         <v>6169</v>
       </c>
       <c r="Q52" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="R52" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="S52" s="3">
         <v>707020463.88</v>
       </c>
       <c r="T52" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="U52" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V52" s="2">
         <v>2025</v>
       </c>
       <c r="W52" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="X52" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="53" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5845,22 +5847,22 @@
         <v>3</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E53" s="2">
         <v>12</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H53" s="2">
         <v>-34.502295500000002</v>
@@ -5890,28 +5892,28 @@
         <v>5380</v>
       </c>
       <c r="Q53" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="R53" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="S53" s="3">
         <v>698159863.96000004</v>
       </c>
       <c r="T53" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="U53" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V53" s="2">
         <v>2025</v>
       </c>
       <c r="W53" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="X53" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="54" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5919,22 +5921,22 @@
         <v>75</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>190</v>
       </c>
       <c r="E54" s="2">
         <v>12</v>
       </c>
       <c r="F54" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="G54" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>192</v>
       </c>
       <c r="H54" s="2">
         <v>-34.445773000000003</v>
@@ -5964,25 +5966,25 @@
         <v>11428</v>
       </c>
       <c r="Q54" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="R54" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="S54" s="3">
         <v>1167916413.25</v>
       </c>
       <c r="T54" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="U54" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="V54" s="2">
         <v>2025</v>
       </c>
       <c r="W54" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="X54" s="3">
         <v>0</v>
@@ -5993,22 +5995,22 @@
         <v>64</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>194</v>
       </c>
       <c r="E55" s="2">
         <v>12</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H55" s="2">
         <v>-34.578222400000001</v>
@@ -6038,28 +6040,28 @@
         <v>8100</v>
       </c>
       <c r="Q55" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="R55" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="S55" s="3">
         <v>1297795459.5999999</v>
       </c>
       <c r="T55" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="U55" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V55" s="2">
         <v>2025</v>
       </c>
       <c r="W55" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="X55" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="56" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6067,22 +6069,22 @@
         <v>46</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>196</v>
       </c>
       <c r="E56" s="2">
         <v>12</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H56" s="2">
         <v>-34.5922245</v>
@@ -6112,28 +6114,28 @@
         <v>10693</v>
       </c>
       <c r="Q56" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="R56" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="S56" s="3">
         <v>2182772573.0500002</v>
       </c>
       <c r="T56" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="U56" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V56" s="2">
         <v>2025</v>
       </c>
       <c r="W56" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="X56" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="57" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6141,22 +6143,22 @@
         <v>91</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>198</v>
       </c>
       <c r="E57" s="2">
         <v>11</v>
       </c>
       <c r="F57" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="G57" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>200</v>
       </c>
       <c r="H57" s="2">
         <v>-34.611269499999999</v>
@@ -6186,28 +6188,28 @@
         <v>12584</v>
       </c>
       <c r="Q57" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="R57" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="S57" s="3">
         <v>1366072107.53</v>
       </c>
       <c r="T57" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="U57" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="V57" s="2">
         <v>2025</v>
       </c>
       <c r="W57" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="X57" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="58" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6215,22 +6217,22 @@
         <v>24</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E58" s="2">
         <v>12</v>
       </c>
       <c r="F58" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G58" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="H58" s="2">
         <v>-34.445542500000002</v>
@@ -6260,28 +6262,28 @@
         <v>8702</v>
       </c>
       <c r="Q58" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="R58" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="S58" s="3">
         <v>1126364315.48</v>
       </c>
       <c r="T58" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="U58" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V58" s="2">
         <v>2025</v>
       </c>
       <c r="W58" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="X58" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="59" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6289,22 +6291,22 @@
         <v>67</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>203</v>
       </c>
       <c r="E59" s="2">
         <v>12</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H59" s="2">
         <v>-34.407639000000003</v>
@@ -6334,28 +6336,28 @@
         <v>10202</v>
       </c>
       <c r="Q59" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="R59" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="S59" s="3">
         <v>1018202620.28</v>
       </c>
       <c r="T59" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U59" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V59" s="2">
         <v>2025</v>
       </c>
       <c r="W59" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="X59" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="60" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6363,22 +6365,22 @@
         <v>113</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>205</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>206</v>
       </c>
       <c r="E60" s="2">
         <v>12</v>
       </c>
       <c r="F60" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="G60" s="2" t="s">
         <v>207</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>208</v>
       </c>
       <c r="H60" s="2">
         <v>-34.432844699999997</v>
@@ -6408,28 +6410,28 @@
         <v>8265</v>
       </c>
       <c r="Q60" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R60" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="S60" s="3">
         <v>690965760.94000006</v>
       </c>
       <c r="T60" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="U60" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V60" s="2">
         <v>2025</v>
       </c>
       <c r="W60" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="X60" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="61" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6437,22 +6439,22 @@
         <v>51</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>210</v>
       </c>
       <c r="E61" s="2">
         <v>12</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H61" s="2">
         <v>-38.026138899999999</v>
@@ -6482,28 +6484,28 @@
         <v>16183</v>
       </c>
       <c r="Q61" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="R61" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="S61" s="3">
         <v>1169691097.8299999</v>
       </c>
       <c r="T61" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="U61" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="V61" s="2">
         <v>2025</v>
       </c>
       <c r="W61" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="X61" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="62" spans="1:24" ht="13" x14ac:dyDescent="0.15">
@@ -6511,22 +6513,22 @@
         <v>23</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>212</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>213</v>
       </c>
       <c r="E62" s="2">
         <v>10</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H62" s="2">
         <v>-34.609812300000002</v>
@@ -6556,25 +6558,25 @@
         <v>9228</v>
       </c>
       <c r="Q62" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="R62" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="S62" s="3">
         <v>1003513350.83</v>
       </c>
       <c r="T62" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="U62" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="V62" s="2">
         <v>2025</v>
       </c>
       <c r="W62" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="X62" s="3">
         <v>0</v>
@@ -6585,22 +6587,22 @@
         <v>95</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>216</v>
       </c>
       <c r="E63" s="2">
         <v>12</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H63" s="2">
         <v>-34.6146794</v>
@@ -6630,25 +6632,25 @@
         <v>10343</v>
       </c>
       <c r="Q63" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="R63" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="S63" s="3">
         <v>994127086.98000002</v>
       </c>
       <c r="T63" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="U63" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="V63" s="2">
         <v>2025</v>
       </c>
       <c r="W63" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="X63" s="3">
         <v>0</v>
@@ -6659,22 +6661,22 @@
         <v>86</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="E64" s="2">
         <v>12</v>
       </c>
       <c r="F64" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="G64" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>220</v>
       </c>
       <c r="H64" s="2">
         <v>-34.732769599999997</v>
@@ -6704,28 +6706,28 @@
         <v>8705</v>
       </c>
       <c r="Q64" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="R64" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="S64" s="3">
         <v>1127777954.2</v>
       </c>
       <c r="T64" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="U64" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="V64" s="2">
         <v>2025</v>
       </c>
       <c r="W64" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="X64" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="65" spans="1:24" ht="13" x14ac:dyDescent="0.15">
@@ -6733,22 +6735,22 @@
         <v>63</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>221</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>222</v>
       </c>
       <c r="E65" s="2">
         <v>12</v>
       </c>
       <c r="F65" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="G65" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>224</v>
       </c>
       <c r="H65" s="2">
         <v>-34.646168500000002</v>
@@ -6778,28 +6780,28 @@
         <v>5790</v>
       </c>
       <c r="Q65" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="R65" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="S65" s="3">
         <v>885155458.15999997</v>
       </c>
       <c r="T65" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="U65" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V65" s="2">
         <v>2025</v>
       </c>
       <c r="W65" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="X65" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="66" spans="1:24" ht="13" x14ac:dyDescent="0.15">
@@ -6807,22 +6809,22 @@
         <v>92</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>225</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>226</v>
       </c>
       <c r="E66" s="2">
         <v>12</v>
       </c>
       <c r="F66" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="G66" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>224</v>
       </c>
       <c r="H66" s="2">
         <v>-34.648557199999999</v>
@@ -6852,28 +6854,28 @@
         <v>9906</v>
       </c>
       <c r="Q66" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="R66" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="S66" s="3">
         <v>727430942.23000002</v>
       </c>
       <c r="T66" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="U66" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V66" s="2">
         <v>2025</v>
       </c>
       <c r="W66" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="X66" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="67" spans="1:24" ht="13" x14ac:dyDescent="0.15">
@@ -6881,22 +6883,22 @@
         <v>27</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>227</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>228</v>
       </c>
       <c r="E67" s="2">
         <v>9</v>
       </c>
       <c r="F67" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="G67" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>224</v>
       </c>
       <c r="H67" s="2">
         <v>-34.659569099999999</v>
@@ -6926,28 +6928,28 @@
         <v>8658</v>
       </c>
       <c r="Q67" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="R67" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="S67" s="3">
         <v>816917823.22000003</v>
       </c>
       <c r="T67" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="U67" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V67" s="2">
         <v>2025</v>
       </c>
       <c r="W67" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="X67" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="68" spans="1:24" ht="13" x14ac:dyDescent="0.15">
@@ -6955,22 +6957,22 @@
         <v>29</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E68" s="2">
         <v>12</v>
       </c>
       <c r="F68" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="G68" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>224</v>
       </c>
       <c r="H68" s="2">
         <v>-34.648618300000003</v>
@@ -7000,28 +7002,28 @@
         <v>5070</v>
       </c>
       <c r="Q68" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="R68" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="S68" s="3">
         <v>788173786.71000004</v>
       </c>
       <c r="T68" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="U68" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V68" s="2">
         <v>2025</v>
       </c>
       <c r="W68" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="X68" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="69" spans="1:24" ht="13" x14ac:dyDescent="0.15">
@@ -7029,22 +7031,22 @@
         <v>40</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>230</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>231</v>
       </c>
       <c r="E69" s="2">
         <v>12</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H69" s="2">
         <v>-34.480408099999998</v>
@@ -7074,28 +7076,28 @@
         <v>12934</v>
       </c>
       <c r="Q69" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="R69" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="S69" s="3">
         <v>1090296375.51</v>
       </c>
       <c r="T69" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="U69" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V69" s="2">
         <v>2025</v>
       </c>
       <c r="W69" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="X69" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="70" spans="1:24" ht="13" x14ac:dyDescent="0.15">
@@ -7103,22 +7105,22 @@
         <v>65</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D70" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>234</v>
       </c>
       <c r="E70" s="2">
         <v>12</v>
       </c>
       <c r="F70" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="G70" s="2" t="s">
         <v>235</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>236</v>
       </c>
       <c r="H70" s="2">
         <v>-34.676444799999999</v>
@@ -7148,28 +7150,28 @@
         <v>14187</v>
       </c>
       <c r="Q70" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="R70" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="S70" s="3">
         <v>1244325920.8399999</v>
       </c>
       <c r="T70" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="U70" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="V70" s="2">
         <v>2025</v>
       </c>
       <c r="W70" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="X70" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="71" spans="1:24" ht="13" x14ac:dyDescent="0.15">
@@ -7177,22 +7179,22 @@
         <v>112</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>238</v>
       </c>
       <c r="E71" s="2">
         <v>12</v>
       </c>
       <c r="F71" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="G71" s="2" t="s">
         <v>235</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>236</v>
       </c>
       <c r="H71" s="2">
         <v>-34.676444799999999</v>
@@ -7222,28 +7224,28 @@
         <v>7750</v>
       </c>
       <c r="Q71" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="R71" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="S71" s="3">
         <v>299678223.00999999</v>
       </c>
       <c r="T71" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="U71" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="V71" s="2">
         <v>2025</v>
       </c>
       <c r="W71" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="X71" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="72" spans="1:24" ht="13" x14ac:dyDescent="0.15">
@@ -7251,22 +7253,22 @@
         <v>30</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>240</v>
       </c>
       <c r="E72" s="2">
         <v>12</v>
       </c>
       <c r="F72" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="G72" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>242</v>
       </c>
       <c r="H72" s="2">
         <v>-34.568072700000002</v>
@@ -7296,28 +7298,28 @@
         <v>8745</v>
       </c>
       <c r="Q72" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="R72" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="S72" s="3">
         <v>893536199.48000002</v>
       </c>
       <c r="T72" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="U72" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V72" s="2">
         <v>2025</v>
       </c>
       <c r="W72" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="X72" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="73" spans="1:24" ht="13" x14ac:dyDescent="0.15">
@@ -7325,22 +7327,22 @@
         <v>32</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E73" s="2">
         <v>11</v>
       </c>
       <c r="F73" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="G73" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>242</v>
       </c>
       <c r="H73" s="2">
         <v>-34.568072700000002</v>
@@ -7370,28 +7372,28 @@
         <v>9505</v>
       </c>
       <c r="Q73" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="R73" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="S73" s="3">
         <v>906148026.25999999</v>
       </c>
       <c r="T73" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="U73" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V73" s="2">
         <v>2025</v>
       </c>
       <c r="W73" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="X73" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="74" spans="1:24" ht="13" x14ac:dyDescent="0.15">
@@ -7399,22 +7401,22 @@
         <v>33</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E74" s="2">
         <v>12</v>
       </c>
       <c r="F74" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="G74" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>242</v>
       </c>
       <c r="H74" s="2">
         <v>-34.568072700000002</v>
@@ -7444,28 +7446,28 @@
         <v>7241</v>
       </c>
       <c r="Q74" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="R74" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="S74" s="3">
         <v>637852158.11000001</v>
       </c>
       <c r="T74" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="U74" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V74" s="2">
         <v>2025</v>
       </c>
       <c r="W74" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="X74" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="75" spans="1:24" ht="13" x14ac:dyDescent="0.15">
@@ -7473,22 +7475,22 @@
         <v>35</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E75" s="2">
         <v>12</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H75" s="2">
         <v>-34.554476800000003</v>
@@ -7518,28 +7520,28 @@
         <v>12045</v>
       </c>
       <c r="Q75" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="R75" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="S75" s="3">
         <v>1053569613.01</v>
       </c>
       <c r="T75" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="U75" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V75" s="2">
         <v>2025</v>
       </c>
       <c r="W75" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="X75" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="76" spans="1:24" ht="13" x14ac:dyDescent="0.15">
@@ -7547,22 +7549,22 @@
         <v>21</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>247</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>248</v>
       </c>
       <c r="E76" s="2">
         <v>12</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H76" s="2">
         <v>-34.611826499999999</v>
@@ -7592,28 +7594,28 @@
         <v>10015</v>
       </c>
       <c r="Q76" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="R76" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="S76" s="3">
         <v>800681671.98000002</v>
       </c>
       <c r="T76" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="U76" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="V76" s="2">
         <v>2025</v>
       </c>
       <c r="W76" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="X76" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="77" spans="1:24" ht="13" x14ac:dyDescent="0.15">
@@ -7621,22 +7623,22 @@
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>250</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>251</v>
       </c>
       <c r="E77" s="2">
         <v>12</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H77" s="2">
         <v>-34.611525499999999</v>
@@ -7666,28 +7668,28 @@
         <v>9460</v>
       </c>
       <c r="Q77" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="R77" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="S77" s="3">
         <v>852215599.76999998</v>
       </c>
       <c r="T77" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="U77" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="V77" s="2">
         <v>2025</v>
       </c>
       <c r="W77" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="X77" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="78" spans="1:24" ht="13" x14ac:dyDescent="0.15">
@@ -7695,22 +7697,22 @@
         <v>62</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D78" s="2" t="s">
         <v>253</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>254</v>
       </c>
       <c r="E78" s="2">
         <v>12</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H78" s="2">
         <v>-34.614917900000002</v>
@@ -7740,28 +7742,28 @@
         <v>11498</v>
       </c>
       <c r="Q78" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="R78" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="S78" s="3">
         <v>927980455.75999999</v>
       </c>
       <c r="T78" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="U78" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="V78" s="2">
         <v>2025</v>
       </c>
       <c r="W78" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="X78" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="79" spans="1:24" ht="13" x14ac:dyDescent="0.15">
@@ -7769,22 +7771,22 @@
         <v>90</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>256</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>257</v>
       </c>
       <c r="E79" s="2">
         <v>12</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H79" s="2">
         <v>-34.785307799999998</v>
@@ -7814,28 +7816,28 @@
         <v>11562</v>
       </c>
       <c r="Q79" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="R79" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S79" s="3">
         <v>905701797.37</v>
       </c>
       <c r="T79" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="U79" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="V79" s="2">
         <v>2025</v>
       </c>
       <c r="W79" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="X79" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="80" spans="1:24" ht="13" x14ac:dyDescent="0.15">
@@ -7843,22 +7845,22 @@
         <v>22</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>259</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>260</v>
       </c>
       <c r="E80" s="2">
         <v>12</v>
       </c>
       <c r="F80" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="G80" s="2" t="s">
         <v>261</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>262</v>
       </c>
       <c r="H80" s="2">
         <v>-34.517298699999998</v>
@@ -7888,28 +7890,28 @@
         <v>9449</v>
       </c>
       <c r="Q80" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="R80" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="S80" s="3">
         <v>1056152804.27</v>
       </c>
       <c r="T80" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="U80" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V80" s="2">
         <v>2025</v>
       </c>
       <c r="W80" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="X80" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="81" spans="1:24" ht="13" x14ac:dyDescent="0.15">
@@ -7917,22 +7919,22 @@
         <v>114</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>263</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>264</v>
       </c>
       <c r="E81" s="2">
         <v>12</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H81" s="2">
         <v>-34.514558800000003</v>
@@ -7962,28 +7964,28 @@
         <v>9248</v>
       </c>
       <c r="Q81" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="R81" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="S81" s="3">
         <v>353024062.10000002</v>
       </c>
       <c r="T81" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="U81" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="V81" s="2">
         <v>2025</v>
       </c>
       <c r="W81" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="X81" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="82" spans="1:24" ht="13" x14ac:dyDescent="0.15">
@@ -7991,22 +7993,22 @@
         <v>115</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D82" s="2" t="s">
         <v>266</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>267</v>
       </c>
       <c r="E82" s="2">
         <v>12</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H82" s="2">
         <v>-34.5148425</v>
@@ -8036,28 +8038,28 @@
         <v>8107</v>
       </c>
       <c r="Q82" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="R82" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="S82" s="3">
         <v>255719336.13999999</v>
       </c>
       <c r="T82" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="U82" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="V82" s="2">
         <v>2025</v>
       </c>
       <c r="W82" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="X82" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="83" spans="1:24" ht="13" x14ac:dyDescent="0.15">
@@ -8065,22 +8067,22 @@
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C83" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="D83" s="2" t="s">
         <v>269</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>270</v>
       </c>
       <c r="E83" s="2">
         <v>0</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H83" s="2">
         <v>-34.5270668</v>
@@ -8094,22 +8096,22 @@
         <v>102</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>271</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>272</v>
       </c>
       <c r="E84" s="2">
         <v>0</v>
       </c>
       <c r="F84" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="G84" s="2" t="s">
         <v>273</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>274</v>
       </c>
       <c r="H84" s="2">
         <v>-34.7215238</v>
@@ -8123,22 +8125,22 @@
         <v>117</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C85" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="D85" s="2" t="s">
         <v>276</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>277</v>
       </c>
       <c r="E85" s="2">
         <v>0</v>
       </c>
       <c r="F85" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="G85" s="2" t="s">
         <v>278</v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>279</v>
       </c>
       <c r="H85" s="2">
         <v>-34.594363000000001</v>
@@ -8152,22 +8154,22 @@
         <v>94</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>280</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>281</v>
       </c>
       <c r="E86" s="2">
         <v>0</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H86" s="2">
         <v>-34.733790800000001</v>
@@ -8181,22 +8183,22 @@
         <v>98</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E87" s="2">
         <v>0</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H87" s="2">
         <v>-34.733790800000001</v>
@@ -8210,22 +8212,22 @@
         <v>129</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>284</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>285</v>
       </c>
       <c r="E88" s="2">
         <v>0</v>
       </c>
       <c r="F88" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="G88" s="2" t="s">
         <v>286</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>287</v>
       </c>
       <c r="H88" s="2">
         <v>-35.249530800000002</v>
@@ -8239,22 +8241,22 @@
         <v>133</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D89" s="2" t="s">
         <v>288</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>289</v>
       </c>
       <c r="E89" s="2">
         <v>0</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H89" s="2">
         <v>-34.920488499999998</v>
@@ -8268,22 +8270,22 @@
         <v>134</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E90" s="2">
         <v>0</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H90" s="2">
         <v>-34.920770099999999</v>
@@ -8297,22 +8299,22 @@
         <v>119</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>292</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>293</v>
       </c>
       <c r="E91" s="2">
         <v>0</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H91" s="2">
         <v>-34.757101400000003</v>
@@ -8326,22 +8328,22 @@
         <v>99</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>295</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>296</v>
       </c>
       <c r="E92" s="2">
         <v>0</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H92" s="2">
         <v>-37.869263203880699</v>
@@ -8355,22 +8357,22 @@
         <v>7</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>297</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>298</v>
       </c>
       <c r="E93" s="2">
         <v>0</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H93" s="2">
         <v>-34.469256799999997</v>
@@ -8384,22 +8386,22 @@
         <v>122</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E94" s="2">
         <v>0</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H94" s="2">
         <v>-34.586066199999998</v>

--- a/app/data/resultados_unificado.xlsx
+++ b/app/data/resultados_unificado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinchapouille/Desktop/Serendip.IA/app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1708CF2-14ED-E948-ADDD-DBE391587FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB98541-EE83-6A44-9F8D-609120693F98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13020" yWindow="2300" windowWidth="25380" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1963,9 +1963,9 @@
   </sheetPr>
   <dimension ref="A1:X94"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E43" sqref="E43"/>
+      <selection pane="topRight" activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.83203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/app/data/resultados_unificado.xlsx
+++ b/app/data/resultados_unificado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinchapouille/Desktop/Serendip.IA/app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB98541-EE83-6A44-9F8D-609120693F98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{909C841C-468F-E645-892A-0D0EF45FD040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13020" yWindow="2300" windowWidth="25380" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4450,7 +4450,7 @@
         <v>129</v>
       </c>
       <c r="E34" s="2">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>130</v>

--- a/app/data/resultados_unificado.xlsx
+++ b/app/data/resultados_unificado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinchapouille/Desktop/Serendip.IA/app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{909C841C-468F-E645-892A-0D0EF45FD040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A70D1FCB-343C-5649-8A1A-826E1CD9ABDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13020" yWindow="2300" windowWidth="25380" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1963,9 +1963,9 @@
   </sheetPr>
   <dimension ref="A1:X94"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E35" sqref="E35"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.83203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2627,7 +2627,7 @@
         <v>300</v>
       </c>
       <c r="N9" s="2">
-        <v>1854</v>
+        <v>570</v>
       </c>
       <c r="O9" s="4">
         <v>150</v>
@@ -2701,7 +2701,7 @@
         <v>800</v>
       </c>
       <c r="N10" s="2">
-        <v>570</v>
+        <v>1015</v>
       </c>
       <c r="O10" s="4">
         <v>129</v>
@@ -2775,7 +2775,7 @@
         <v>500</v>
       </c>
       <c r="N11" s="2">
-        <v>1015</v>
+        <v>1105</v>
       </c>
       <c r="O11" s="4">
         <v>112</v>
@@ -2849,7 +2849,7 @@
         <v>500</v>
       </c>
       <c r="N12" s="2">
-        <v>1105</v>
+        <v>1522</v>
       </c>
       <c r="O12" s="4">
         <v>107</v>
@@ -2922,9 +2922,7 @@
       <c r="M13" s="2">
         <v>0</v>
       </c>
-      <c r="N13" s="2">
-        <v>1522</v>
-      </c>
+      <c r="N13" s="2"/>
       <c r="O13" s="4">
         <v>0</v>
       </c>
@@ -2997,7 +2995,7 @@
         <v>200</v>
       </c>
       <c r="N14" s="2">
-        <v>856</v>
+        <v>815</v>
       </c>
       <c r="O14" s="4">
         <v>107</v>
@@ -3071,7 +3069,7 @@
         <v>300</v>
       </c>
       <c r="N15" s="2">
-        <v>815</v>
+        <v>1300</v>
       </c>
       <c r="O15" s="4">
         <v>196</v>
@@ -3145,7 +3143,7 @@
         <v>600</v>
       </c>
       <c r="N16" s="2">
-        <v>1300</v>
+        <v>2674</v>
       </c>
       <c r="O16" s="4">
         <v>66</v>
@@ -3219,7 +3217,7 @@
         <v>180</v>
       </c>
       <c r="N17" s="2">
-        <v>586</v>
+        <v>734</v>
       </c>
       <c r="O17" s="4">
         <v>118</v>
@@ -3293,7 +3291,7 @@
         <v>250</v>
       </c>
       <c r="N18" s="2">
-        <v>2674</v>
+        <v>445</v>
       </c>
       <c r="O18" s="4">
         <v>121</v>
@@ -3367,7 +3365,7 @@
         <v>250</v>
       </c>
       <c r="N19" s="2">
-        <v>734</v>
+        <v>644</v>
       </c>
       <c r="O19" s="4">
         <v>132</v>
@@ -3441,7 +3439,7 @@
         <v>700</v>
       </c>
       <c r="N20" s="2">
-        <v>445</v>
+        <v>340</v>
       </c>
       <c r="O20" s="4">
         <v>89</v>
@@ -3515,7 +3513,7 @@
         <v>250</v>
       </c>
       <c r="N21" s="2">
-        <v>644</v>
+        <v>1683</v>
       </c>
       <c r="O21" s="4">
         <v>78</v>
@@ -3589,7 +3587,7 @@
         <v>150</v>
       </c>
       <c r="N22" s="2">
-        <v>340</v>
+        <v>1457</v>
       </c>
       <c r="O22" s="4">
         <v>93</v>
@@ -3663,7 +3661,7 @@
         <v>800</v>
       </c>
       <c r="N23" s="2">
-        <v>1683</v>
+        <v>1920</v>
       </c>
       <c r="O23" s="4">
         <v>118</v>
@@ -3737,7 +3735,7 @@
         <v>800</v>
       </c>
       <c r="N24" s="2">
-        <v>1457</v>
+        <v>1828</v>
       </c>
       <c r="O24" s="4">
         <v>144</v>
@@ -3811,7 +3809,7 @@
         <v>350</v>
       </c>
       <c r="N25" s="2">
-        <v>1920</v>
+        <v>1056</v>
       </c>
       <c r="O25" s="4">
         <v>130</v>
@@ -3885,7 +3883,7 @@
         <v>550</v>
       </c>
       <c r="N26" s="2">
-        <v>1828</v>
+        <v>429</v>
       </c>
       <c r="O26" s="4">
         <v>128</v>
@@ -3959,7 +3957,7 @@
         <v>180</v>
       </c>
       <c r="N27" s="2">
-        <v>1056</v>
+        <v>1240</v>
       </c>
       <c r="O27" s="4">
         <v>131</v>
@@ -4033,7 +4031,7 @@
         <v>300</v>
       </c>
       <c r="N28" s="2">
-        <v>429</v>
+        <v>607</v>
       </c>
       <c r="O28" s="4">
         <v>80</v>
@@ -4107,7 +4105,7 @@
         <v>500</v>
       </c>
       <c r="N29" s="2">
-        <v>1240</v>
+        <v>5075</v>
       </c>
       <c r="O29" s="4">
         <v>73</v>
@@ -4181,7 +4179,7 @@
         <v>150</v>
       </c>
       <c r="N30" s="2">
-        <v>607</v>
+        <v>2150</v>
       </c>
       <c r="O30" s="4">
         <v>72</v>
@@ -4255,7 +4253,7 @@
         <v>350</v>
       </c>
       <c r="N31" s="2">
-        <v>3185</v>
+        <v>1018</v>
       </c>
       <c r="O31" s="4">
         <v>137</v>
@@ -4328,9 +4326,7 @@
       <c r="M32" s="2">
         <v>0</v>
       </c>
-      <c r="N32" s="2">
-        <v>0</v>
-      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="4">
         <v>0</v>
       </c>
@@ -4477,7 +4473,7 @@
         <v>200</v>
       </c>
       <c r="N34" s="2">
-        <v>1800</v>
+        <v>1288</v>
       </c>
       <c r="O34" s="4">
         <v>115</v>
@@ -4551,7 +4547,7 @@
         <v>200</v>
       </c>
       <c r="N35" s="2">
-        <v>1331</v>
+        <v>2092</v>
       </c>
       <c r="O35" s="4">
         <v>77</v>
@@ -4625,7 +4621,7 @@
         <v>300</v>
       </c>
       <c r="N36" s="2">
-        <v>1288</v>
+        <v>974</v>
       </c>
       <c r="O36" s="4">
         <v>100</v>
@@ -4699,7 +4695,7 @@
         <v>300</v>
       </c>
       <c r="N37" s="2">
-        <v>2092</v>
+        <v>890</v>
       </c>
       <c r="O37" s="4">
         <v>133</v>
@@ -4773,7 +4769,7 @@
         <v>160</v>
       </c>
       <c r="N38" s="2">
-        <v>974</v>
+        <v>509</v>
       </c>
       <c r="O38" s="4">
         <v>123</v>
@@ -4921,7 +4917,7 @@
         <v>200</v>
       </c>
       <c r="N40" s="2">
-        <v>509</v>
+        <v>1193</v>
       </c>
       <c r="O40" s="4">
         <v>6</v>
@@ -4995,7 +4991,7 @@
         <v>300</v>
       </c>
       <c r="N41" s="2">
-        <v>1193</v>
+        <v>1263</v>
       </c>
       <c r="O41" s="4">
         <v>155</v>
@@ -5069,7 +5065,7 @@
         <v>200</v>
       </c>
       <c r="N42" s="2">
-        <v>1619</v>
+        <v>380</v>
       </c>
       <c r="O42" s="4">
         <v>125</v>
@@ -5143,7 +5139,7 @@
         <v>150</v>
       </c>
       <c r="N43" s="2">
-        <v>380</v>
+        <v>1377</v>
       </c>
       <c r="O43" s="4">
         <v>47</v>
@@ -5217,7 +5213,7 @@
         <v>450</v>
       </c>
       <c r="N44" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="O44" s="4">
         <v>105</v>
@@ -5291,7 +5287,7 @@
         <v>150</v>
       </c>
       <c r="N45" s="2">
-        <v>1377</v>
+        <v>1277</v>
       </c>
       <c r="O45" s="4">
         <v>128</v>
@@ -5365,7 +5361,7 @@
         <v>450</v>
       </c>
       <c r="N46" s="2">
-        <v>756</v>
+        <v>481</v>
       </c>
       <c r="O46" s="4">
         <v>113</v>
@@ -5439,7 +5435,7 @@
         <v>210</v>
       </c>
       <c r="N47" s="2">
-        <v>1277</v>
+        <v>1008</v>
       </c>
       <c r="O47" s="4">
         <v>131</v>
@@ -5513,7 +5509,7 @@
         <v>200</v>
       </c>
       <c r="N48" s="2">
-        <v>481</v>
+        <v>830</v>
       </c>
       <c r="O48" s="4">
         <v>104</v>
@@ -5587,7 +5583,7 @@
         <v>220</v>
       </c>
       <c r="N49" s="2">
-        <v>1008</v>
+        <v>1345</v>
       </c>
       <c r="O49" s="4">
         <v>130</v>
@@ -5661,7 +5657,7 @@
         <v>250</v>
       </c>
       <c r="N50" s="2">
-        <v>830</v>
+        <v>1500</v>
       </c>
       <c r="O50" s="4">
         <v>111</v>
@@ -5735,7 +5731,7 @@
         <v>270</v>
       </c>
       <c r="N51" s="2">
-        <v>1345</v>
+        <v>1500</v>
       </c>
       <c r="O51" s="4">
         <v>136</v>
@@ -5809,7 +5805,7 @@
         <v>200</v>
       </c>
       <c r="N52" s="2">
-        <v>1500</v>
+        <v>993</v>
       </c>
       <c r="O52" s="4">
         <v>55</v>
@@ -5883,7 +5879,7 @@
         <v>170</v>
       </c>
       <c r="N53" s="2">
-        <v>1500</v>
+        <v>1337</v>
       </c>
       <c r="O53" s="4">
         <v>60</v>
@@ -5957,7 +5953,7 @@
         <v>250</v>
       </c>
       <c r="N54" s="2">
-        <v>16100</v>
+        <v>914</v>
       </c>
       <c r="O54" s="4">
         <v>98</v>
@@ -6031,7 +6027,7 @@
         <v>300</v>
       </c>
       <c r="N55" s="2">
-        <v>993</v>
+        <v>833</v>
       </c>
       <c r="O55" s="4">
         <v>82</v>
@@ -6105,7 +6101,7 @@
         <v>300</v>
       </c>
       <c r="N56" s="2">
-        <v>1337</v>
+        <v>763</v>
       </c>
       <c r="O56" s="4">
         <v>100</v>
@@ -6179,7 +6175,7 @@
         <v>200</v>
       </c>
       <c r="N57" s="2">
-        <v>914</v>
+        <v>1460</v>
       </c>
       <c r="O57" s="4">
         <v>120</v>
@@ -6253,7 +6249,7 @@
         <v>350</v>
       </c>
       <c r="N58" s="2">
-        <v>833</v>
+        <v>650</v>
       </c>
       <c r="O58" s="4">
         <v>89</v>
@@ -6401,7 +6397,7 @@
         <v>300</v>
       </c>
       <c r="N60" s="2">
-        <v>1460</v>
+        <v>570</v>
       </c>
       <c r="O60" s="4">
         <v>85</v>
@@ -6475,7 +6471,7 @@
         <v>400</v>
       </c>
       <c r="N61" s="2">
-        <v>650</v>
+        <v>911</v>
       </c>
       <c r="O61" s="4">
         <v>140</v>
@@ -6623,7 +6619,7 @@
         <v>120</v>
       </c>
       <c r="N63" s="2">
-        <v>911</v>
+        <v>503</v>
       </c>
       <c r="O63" s="4">
         <v>112</v>
@@ -6697,7 +6693,7 @@
         <v>120</v>
       </c>
       <c r="N64" s="2">
-        <v>941</v>
+        <v>730</v>
       </c>
       <c r="O64" s="4">
         <v>94</v>
@@ -6771,7 +6767,7 @@
         <v>100</v>
       </c>
       <c r="N65" s="2">
-        <v>503</v>
+        <v>150</v>
       </c>
       <c r="O65" s="4">
         <v>65</v>
@@ -6845,7 +6841,7 @@
         <v>180</v>
       </c>
       <c r="N66" s="2">
-        <v>730</v>
+        <v>2595</v>
       </c>
       <c r="O66" s="4">
         <v>109</v>
@@ -6919,7 +6915,7 @@
         <v>250</v>
       </c>
       <c r="N67" s="2">
-        <v>270</v>
+        <v>1113</v>
       </c>
       <c r="O67" s="4">
         <v>91</v>
@@ -6993,7 +6989,7 @@
         <v>150</v>
       </c>
       <c r="N68" s="2">
-        <v>150</v>
+        <v>495</v>
       </c>
       <c r="O68" s="4">
         <v>57</v>
@@ -7067,7 +7063,7 @@
         <v>250</v>
       </c>
       <c r="N69" s="2">
-        <v>1113</v>
+        <v>2427</v>
       </c>
       <c r="O69" s="4">
         <v>128</v>
@@ -7141,7 +7137,7 @@
         <v>300</v>
       </c>
       <c r="N70" s="2">
-        <v>495</v>
+        <v>2427</v>
       </c>
       <c r="O70" s="4">
         <v>147</v>
@@ -7215,7 +7211,7 @@
         <v>100</v>
       </c>
       <c r="N71" s="2">
-        <v>2100</v>
+        <v>2427</v>
       </c>
       <c r="O71" s="4">
         <v>88</v>
@@ -7289,7 +7285,7 @@
         <v>200</v>
       </c>
       <c r="N72" s="2">
-        <v>2427</v>
+        <v>1362</v>
       </c>
       <c r="O72" s="4">
         <v>96</v>
@@ -7363,7 +7359,7 @@
         <v>250</v>
       </c>
       <c r="N73" s="2">
-        <v>2427</v>
+        <v>1010</v>
       </c>
       <c r="O73" s="4">
         <v>101</v>
@@ -7437,7 +7433,7 @@
         <v>210</v>
       </c>
       <c r="N74" s="2">
-        <v>2427</v>
+        <v>770</v>
       </c>
       <c r="O74" s="4">
         <v>82</v>
@@ -7511,7 +7507,7 @@
         <v>450</v>
       </c>
       <c r="N75" s="2">
-        <v>1362</v>
+        <v>415</v>
       </c>
       <c r="O75" s="4">
         <v>130</v>
@@ -7585,7 +7581,7 @@
         <v>130</v>
       </c>
       <c r="N76" s="2">
-        <v>1010</v>
+        <v>470</v>
       </c>
       <c r="O76" s="4">
         <v>114</v>
@@ -7659,7 +7655,7 @@
         <v>220</v>
       </c>
       <c r="N77" s="2">
-        <v>770</v>
+        <v>1550</v>
       </c>
       <c r="O77" s="4">
         <v>84</v>
@@ -7733,7 +7729,7 @@
         <v>260</v>
       </c>
       <c r="N78" s="2">
-        <v>415</v>
+        <v>670</v>
       </c>
       <c r="O78" s="4">
         <v>123</v>
@@ -7807,7 +7803,7 @@
         <v>130</v>
       </c>
       <c r="N79" s="2">
-        <v>470</v>
+        <v>500</v>
       </c>
       <c r="O79" s="4">
         <v>122</v>
@@ -7881,7 +7877,7 @@
         <v>200</v>
       </c>
       <c r="N80" s="2">
-        <v>1550</v>
+        <v>1854</v>
       </c>
       <c r="O80" s="4">
         <v>96</v>
@@ -7955,7 +7951,7 @@
         <v>300</v>
       </c>
       <c r="N81" s="2">
-        <v>670</v>
+        <v>586</v>
       </c>
       <c r="O81" s="4">
         <v>94</v>
@@ -8029,7 +8025,7 @@
         <v>250</v>
       </c>
       <c r="N82" s="2">
-        <v>500</v>
+        <v>16100</v>
       </c>
       <c r="O82" s="4">
         <v>90</v>
